--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/preset-pickles2-paprika-slim/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF81840F-E25B-334F-B860-22CE9C6162F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -409,58 +414,62 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>AJAX on Paprika</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/samples/ajax_paprika.html</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Kozuka Gothic Pr6N B"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -468,10 +477,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -487,19 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -513,13 +525,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -527,13 +540,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -541,13 +555,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -555,51 +570,43 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -889,43 +896,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:V39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customHeight="1" ht="10">
+    <row r="1" spans="1:22" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +947,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -965,14 +961,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1023,14 +1019,14 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1595,8 +1591,8 @@
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
-        <v>85</v>
+      <c r="D24" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1605,8 +1601,8 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>86</v>
+      <c r="L24" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1630,7 +1626,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1640,7 +1636,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4">
@@ -1652,7 +1648,7 @@
         <v>83</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -1664,23 +1660,17 @@
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
@@ -1692,7 +1682,7 @@
         <v>83</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -1700,23 +1690,27 @@
       <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
@@ -1728,7 +1722,7 @@
         <v>83</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -1736,13 +1730,15 @@
       <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="D28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="4"/>
@@ -1750,7 +1746,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
@@ -1762,7 +1758,7 @@
         <v>83</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -1773,10 +1769,10 @@
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="4"/>
@@ -1784,11 +1780,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4">
         <v>1</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -1810,7 +1804,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1820,9 +1814,11 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="N30" s="4">
         <v>1</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>83</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -1843,10 +1839,10 @@
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="D31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="4"/>
@@ -1854,11 +1850,9 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M31" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4">
         <v>1</v>
       </c>
@@ -1868,7 +1862,7 @@
         <v>83</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -1881,7 +1875,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1890,7 +1884,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>108</v>
@@ -1904,7 +1898,7 @@
         <v>83</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -1915,10 +1909,10 @@
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="4"/>
@@ -1926,9 +1920,11 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M33" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>83</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -1950,7 +1946,7 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1960,21 +1956,19 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -1986,7 +1980,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1996,19 +1990,21 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2018,10 +2014,10 @@
     <row r="36" spans="1:22">
       <c r="A36" s="4"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -2030,7 +2026,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4">
@@ -2039,58 +2035,84 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="9" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="39" spans="1:22" customHeight="1" ht="5">
-      <c r="A39" s="10" t="s">
+    <row r="37" spans="1:22">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+    </row>
+    <row r="40" spans="1:22" ht="5" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/preset-pickles2-paprika-slim/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF81840F-E25B-334F-B860-22CE9C6162F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA806D-B08A-AC4E-B606-8A8FD482A037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -421,6 +421,17 @@
   </si>
   <si>
     <t>/sample_pages/samples/ajax_paprika.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>動的なページ on Paprika</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ドウテキ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/samples/dynamic_page.php</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -576,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -588,11 +599,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -897,13 +909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -961,14 +973,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1019,14 +1031,14 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1603,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>131</v>
       </c>
       <c r="E24" s="7"/>
@@ -1601,7 +1613,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>132</v>
       </c>
       <c r="M24" s="4"/>
@@ -1622,45 +1634,45 @@
       <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="4"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>85</v>
+      <c r="D25" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11">
+        <v>1</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1670,7 +1682,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
@@ -1682,7 +1694,7 @@
         <v>83</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -1694,23 +1706,17 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
@@ -1722,7 +1728,7 @@
         <v>83</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -1730,23 +1736,27 @@
       <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
@@ -1758,7 +1768,7 @@
         <v>83</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -1766,13 +1776,15 @@
       <c r="V28" s="4"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="D29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="4"/>
@@ -1780,7 +1792,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4">
@@ -1792,7 +1804,7 @@
         <v>83</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -1803,10 +1815,10 @@
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="4"/>
@@ -1814,11 +1826,9 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M30" s="4"/>
       <c r="N30" s="4">
         <v>1</v>
       </c>
@@ -1828,7 +1838,7 @@
         <v>83</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -1840,7 +1850,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1850,9 +1860,11 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M31" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="N31" s="4">
         <v>1</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>83</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -1873,10 +1885,10 @@
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="D32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="4"/>
@@ -1884,11 +1896,9 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M32" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="4">
         <v>1</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>83</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -1911,7 +1921,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1920,7 +1930,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>108</v>
@@ -1934,7 +1944,7 @@
         <v>83</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -1945,10 +1955,10 @@
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="4"/>
@@ -1956,9 +1966,11 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M34" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="N34" s="4">
         <v>1</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>83</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -1980,7 +1992,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1990,21 +2002,19 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O35" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -2016,7 +2026,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2026,19 +2036,21 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4">
         <v>1</v>
       </c>
-      <c r="O36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -2048,10 +2060,10 @@
     <row r="37" spans="1:22">
       <c r="A37" s="4"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2060,7 +2072,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4">
@@ -2069,41 +2081,75 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="9" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="40" spans="1:22" ht="5" customHeight="1">
-      <c r="A40" s="10" t="s">
+    <row r="38" spans="1:22">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="41" spans="1:22" ht="5" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
